--- a/project-scaffold/Autocomplete graphs/TreeSetAutocomplete data trial 1.xlsx
+++ b/project-scaffold/Autocomplete graphs/TreeSetAutocomplete data trial 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1ea3cf31a6ef637/Desktop/Q8 CSE 373/Autocomplete/autocomplete/project-scaffold/Autocomplete graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{1FF08BBA-1BCA-4C8E-9831-2D9FF3C49A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{413A0FA1-C5AD-4394-BC82-B2BFF1F69BE5}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{1FF08BBA-1BCA-4C8E-9831-2D9FF3C49A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADB26B11-AD39-4ABA-AD1D-2CBB835CA067}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -659,6 +659,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.7101924759405078E-3"/>
+                  <c:y val="-6.1488043161271509E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'TreeSetAutocomplete data trial '!$A$1:$A$10</c:f>
@@ -776,6 +826,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Elements (N) </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -838,6 +943,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1031,6 +1196,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.16030599300087489"/>
+                  <c:y val="-0.29052602799650046"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'TreeSetAutocomplete data trial '!$A$1:$A$10</c:f>
@@ -1148,6 +1363,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Elements</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (N)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1210,6 +1485,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2792,7 +3127,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
